--- a/data_xlsx/美国_纳斯达克综合指数.xlsx
+++ b/data_xlsx/美国_纳斯达克综合指数.xlsx
@@ -27306,8 +27306,144 @@
         <v>13760.7</v>
       </c>
     </row>
+    <row r="3404">
+      <c r="A3404" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3404" s="2" t="n">
+        <v>13918.96</v>
+      </c>
+    </row>
     <row r="3405">
-      <c r="A3405" s="3" t="inlineStr">
+      <c r="A3405" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3405" s="2" t="n">
+        <v>14138.57</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3406" s="2" t="n">
+        <v>14113.7</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3407" s="2" t="n">
+        <v>14244.95</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3408" s="2" t="n">
+        <v>14353.64</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3409" s="2" t="n">
+        <v>14358.02</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3410" s="2" t="n">
+        <v>14063.31</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3411" s="2" t="n">
+        <v>14032.81</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3412" s="2" t="n">
+        <v>14058.87</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3413" s="2" t="n">
+        <v>14144.56</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3414" s="2" t="n">
+        <v>14127.28</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3415" s="2" t="n">
+        <v>14050.11</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3416" s="2" t="n">
+        <v>14316.66</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3417" s="2" t="n">
+        <v>14346.02</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3418" s="2" t="n">
+        <v>14283.91</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3419" s="2" t="n">
+        <v>13973.45</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3420" s="2" t="n">
+        <v>13959.72</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
